--- a/medicine/Enfance/Entre_chiens_et_loups/Entre_chiens_et_loups.xlsx
+++ b/medicine/Enfance/Entre_chiens_et_loups/Entre_chiens_et_loups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Entre chiens et loups (titre original : Noughts &amp; Crosses) est un roman de Malorie Blackman. Il s'agit du premier tome de la série constituée de Entre chiens et loups, La Couleur de la haine, Le Choix d'aimer, Le Retour de l'aube et Entre les lignes.
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Primas et les Nihils se font la guerre depuis bien longtemps. Les Primas ont la peau noire, contrôlent le pays et ont tous les droits. Les Nihils ont la peau blanche et sont contraints de vivre dans une société totalement dirigée par les Primas.
 C'est dans ce monde où les deux races n'ont pas le droit de se mélanger que Callum McGregor et Perséphone (aussi appelé Sephy) Hadley sont nés. Sephy est noire, fille du ministre de l'Intérieur, et Callum est blanc , fils d'ouvrier.
@@ -551,19 +565,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Famille McGrégor (Nihil)
-Callum Ryan McGrégor: personnage principal de l'histoire, meilleur ami de Sephy.
+          <t>Famille McGrégor (Nihil)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Callum Ryan McGrégor: personnage principal de l'histoire, meilleur ami de Sephy.
 Lynette "Lynnie" McGrégor: sœur de Callum
 Jude McGrégor: frère de Callum
 Ryan Callum McGrégor: père de Callum
-Meggie McGrégor: mère de Callum
-Famille Hadley (Prima)
-Perséphone Mira Hadley (alias Sephy): personnage principal de l'histoire, meilleure amie de Callum.
+Meggie McGrégor: mère de Callum</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Entre_chiens_et_loups</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Entre_chiens_et_loups</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille Hadley (Prima)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Perséphone Mira Hadley (alias Sephy): personnage principal de l'histoire, meilleure amie de Callum.
 Minerva "Minnie" Hadley: sœur de Sephy
 Jasmine Abeyede-Hadley: mère de Sephy
-Kamal Hadley: père de Sephy, ministre de l'Intérieur.
-Autres personnages
-Kelani Adams: avocate reputée (qui a sauvé le père de Callum)
+Kamal Hadley: père de Sephy, ministre de l'Intérieur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Entre_chiens_et_loups</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Entre_chiens_et_loups</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres personnages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Kelani Adams: avocate reputée (qui a sauvé le père de Callum)
 M.Stanhope: avocat Nihil qui coopère avec Kelani Adams
 Sarah Pike: secrétaire personnelle de Mme Jasmine Abeyede-Hadley
 Juno Aylette: secrétaire personnelle de M. Kamal Hadley
@@ -573,31 +660,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Entre_chiens_et_loups</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Entre_chiens_et_loups</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptation télévisée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2020, une série adaptée du roman est diffusée sur BBC en Grande-Bretagne : voir Noughts + Crosses.
  Portail de la littérature britannique   Portail de la littérature d’enfance et de jeunesse   Portail des années 2000                   </t>
